--- a/assets/disciplinas/LOM3232.xlsx
+++ b/assets/disciplinas/LOM3232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Transmitir aos alunos o conhecimento básico sobre metrologia óptica ou seja métodos de medição de tamanho e geometria de componentes mecânicos com o emprego de métodos ópticos, com particular ênfase na interferometria a laser.</t>
+    <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840793 - Sérgio Schneider</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Apresentar as principais técnicas ópticas para a medição de grandezas como comprimento, deslocamento e forma, com ênfase nas técnicas interferométricas a laser.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Teoria eletromagnética da luz: noções de representação matemática da onda de luz e interpretação de fenômenos como polarização, interferência e difração. Refração, reflexão e óptica geométrica: leis de Snell, equações de Fraunhofer, reflexão total e óptica geométrica. Propagação da luz em meios especiais como cristais fibras ópticas. Óptica de Fourier e holografia: transformada de Fourier e a sua aplicação na óptica como caso de filtros especiais e halográfia. Fontes e sensores de luz: definição e descrição de fontes incoerentes e coerentes e descrição de sensores do tipo puntual, de posição e de imagem. Componentes ópticos e ajuste de sistemas ópticos. Medição de comprimento: método como interferometria, franjas de Moirè, métodos para medição de grandes distâncias. Medição de forma: diversos métodos e técnicas para medição de forma geométrica. Medição de deslocamento, deformação e vibração: métodos de medição que empregam a holografia, speckle" e as franjas de Moirè. Medição de velocidade: métodos de medição de velocidade e sensor de fibras ópticas. Inspeção de falhas: métodos para inspeção de falhas geométricas e internas utilizando a difração ou a difusão da luz.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,28 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>YOSHIZAWA, T. Handbook of Optical Metrology, Boca Raton: CRC Press, 2009.
-SALEH, B. E. A.; TEICH, M. C. Handbook of Fotonics, Wiley-Interscience, 2007.
-JENKINS, F. A.; WHITE, H. E. Fundamentals of Optics, McGraw-Hill, 1981. 
-CREATH, H.; WYANT, J. Measurement of ultraprecision components using non-contact interferometry based instrumentation, Ultraprecision in Manufacturing Engineering, Springer Verlag, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3232.xlsx
+++ b/assets/disciplinas/LOM3232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide students with basic knowledge of optical metrology, ie methods of measuring the size and geometry of mechanical components using optical methods, with particular emphasis on laser interferometry.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Present the main optical techniques for measuring quantities such as length, displacement and shape, with emphasis on laser interferometric techniques.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Electromagnetic theory of light: notions of mathematical representation of the light wave and interpretation of phenomena such as polarization, interference and diffraction. Refraction, reflection and geometric optics: Snell's laws, Fraunhofer equations, total reflection and geometric optics. Propagation of light in special media such as fiber optic crystals. Fourier optics and holography: Fourier transform and its application in optics as a case of special filters and halography. Light sources and sensors: definition and description of incoherent and coherent sources and description of point, position and image sensors. Optical components and tuning of optical systems. Length measurement: method such as interferometry, Moirè fringes, methods for measuring large distances. Shape measurement: various methods and techniques for geometric shape measurement. Displacement, deformation and vibration measurement: measurement methods employing holography, speckle" and Moirè fringes. Velocity measurement: speed measurement methods and optical fiber sensors. Fault inspection: methods for inspecting geometric and internal spaces using diffraction or scattering of light.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,31 +606,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +653,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +680,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3232.xlsx
+++ b/assets/disciplinas/LOM3232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Transmitir aos alunos o conhecimento básico sobre metrologia óptica ou seja métodos de medição de tamanho e geometria de componentes mecânicos com o emprego de métodos ópticos, com particular ênfase na interferometria a laser.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide students with basic knowledge of optical metrology, ie methods of measuring the size and geometry of mechanical components using optical methods, with particular emphasis on laser interferometry.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide students with basic knowledge of optical metrology, ie methods of measuring the size and geometry of mechanical components using optical methods, with particular emphasis on laser interferometry.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Apresentar as principais técnicas ópticas para a medição de grandezas como comprimento, deslocamento e forma, com ênfase nas técnicas interferométricas a laser.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Teoria eletromagnética da luz: noções de representação matemática da onda de luz e interpretação de fenômenos como polarização, interferência e difração. Refração, reflexão e óptica geométrica: leis de Snell, equações de Fraunhofer, reflexão total e óptica geométrica. Propagação da luz em meios especiais como cristais fibras ópticas. Óptica de Fourier e holografia: transformada de Fourier e a sua aplicação na óptica como caso de filtros especiais e halográfia. Fontes e sensores de luz: definição e descrição de fontes incoerentes e coerentes e descrição de sensores do tipo puntual, de posição e de imagem. Componentes ópticos e ajuste de sistemas ópticos. Medição de comprimento: método como interferometria, franjas de Moirè, métodos para medição de grandes distâncias. Medição de forma: diversos métodos e técnicas para medição de forma geométrica. Medição de deslocamento, deformação e vibração: métodos de medição que empregam a holografia, speckle" e as franjas de Moirè. Medição de velocidade: métodos de medição de velocidade e sensor de fibras ópticas. Inspeção de falhas: métodos para inspeção de falhas geométricas e internas utilizando a difração ou a difusão da luz.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,28 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
+    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>YOSHIZAWA, T. Handbook of Optical Metrology, Boca Raton: CRC Press, 2009.
+SALEH, B. E. A.; TEICH, M. C. Handbook of Fotonics, Wiley-Interscience, 2007.
+JENKINS, F. A.; WHITE, H. E. Fundamentals of Optics, McGraw-Hill, 1981. 
+CREATH, H.; WYANT, J. Measurement of ultraprecision components using non-contact interferometry based instrumentation, Ultraprecision in Manufacturing Engineering, Springer Verlag, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +630,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +671,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
